--- a/Visualization/Excel Specialization/course 1/week 5/W05-V02-Print Options.xlsx
+++ b/Visualization/Excel Specialization/course 1/week 5/W05-V02-Print Options.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep Tukkunor\Desktop\100 Days Of Code\Visualization\Excel Specialization\course 1\week 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep Tukkunor\Desktop\100 Days Of Code\Visualization\Excel Specialization\course 1\Week 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6E20C5-2037-4D38-A069-DA7DC5EB8290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F306A17-ECE1-44BE-B178-C5ED51A37B27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,12 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -6399,11 +6393,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Y1042"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -88596,9 +88592,8 @@
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="82" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="75" verticalDpi="75" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="82" fitToWidth="2" fitToHeight="0" orientation="landscape" horizontalDpi="75" verticalDpi="75" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -89253,7 +89248,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A6" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
